--- a/outputs/HONULULU4.xlsx
+++ b/outputs/HONULULU4.xlsx
@@ -426,7 +426,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page clearly instructs the user to read the syllabus before starting the course, indicating its importance. Abi, being motivated to accomplish tasks and preferring comprehensive information processing, would recognize that finding and reading the syllabus is a crucial step towards getting started with the course.</t>
+Why: The syllabus is explicitly mentioned as a necessary step to begin the course in the welcome text. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style, as she would want to gather all relevant information before starting the course.</t>
         </is>
       </c>
     </row>
@@ -434,8 +434,8 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 1. Motivations
-Why: The page explicitly instructs the user to "please click on Syllabus in the left pane and read through the syllabus," which aligns with Abi's need for clear, step-by-step processes. Abi is motivated to complete tasks and prefers to gather comprehensive information, so this direct instruction would help her know exactly what to do at this step.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The welcome text on the page clearly instructs Abi to click on "Syllabus" in the left pane to begin the course. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style, as she would follow the step-by-step instructions provided.</t>
         </is>
       </c>
     </row>
@@ -444,7 +444,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: Once Abi clicks on the Syllabus, she lands on a page labeled "Course Syllabus," which directly aligns with her goal of finding the syllabus. The page provides detailed information, including a weekly schedule, which caters to her preference for comprehensive information. This will make Abi feel confident that she has done the right thing and is progressing toward getting started with the course.</t>
+Why: After clicking on "Syllabus," Abi lands on a page titled "Course Syllabus," which includes detailed information about the weekly schedule and other relevant course materials. This clear and comprehensive presentation of the syllabus aligns with Abi's motivation to gather all necessary information and her comprehensive information processing style. Abi will know she is making progress toward her goal and has access to all the information she needs.</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: Reading the syllabus is a logical step toward understanding the course structure, requirements, and schedule. Abi, being motivated to complete tasks and preferring comprehensive information, would see reading the syllabus as a critical step in getting started with the course. The page clearly presents the syllabus, making it evident that this is an important step in the process.</t>
+Why: Reading the syllabus is a crucial step in understanding the course structure, requirements, and schedule. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style, as she would want to gather all relevant information before proceeding with the course.</t>
         </is>
       </c>
     </row>
@@ -461,8 +461,8 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 1. Motivations
-Why: The page has a clearly labeled link "Syllabus (PDF)" which is prominently placed and easily identifiable. Since Abi prefers comprehensive information and step-by-step instructions, she will easily understand that clicking on "Syllabus (PDF)" is the next step to read the syllabus. Her motivation to start the course and the clear labeling of the link will guide her in knowing what to do at this step.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Syllabus (PDF)" link is clearly labeled and prominently displayed on the page. Given Abi's motivation to gather all necessary information and her comprehensive information processing style, she will understand that clicking this link will provide her with the detailed syllabus in PDF format, which is a logical step toward reading and understanding the course requirements.</t>
         </is>
       </c>
     </row>
@@ -471,7 +471,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on "Syllabus (PDF)," Abi lands on a page with detailed course information, including fundamental rules, instructor contact information, response times, course content, and learning outcomes. The comprehensive nature of the syllabus matches Abi's preference for detailed information, and she will recognize that she has accessed the necessary documentation to understand the course requirements and structure. This helps her feel confident that she is making progress toward her goal of getting started with the course.</t>
+Why: After clicking on "Syllabus (PDF)," Abi lands on a detailed document that includes comprehensive information about the course, such as fundamental rules, response times, course content, learning outcomes, and course tools. This aligns with Abi's motivation to gather all necessary information and her comprehensive information processing style. Abi will know she is making progress toward her goal and has access to all the information she needs to get started with the course.</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
         <is>
           <t>Answer: NO
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The syllabus PDF contains comprehensive information about the course structure, instructor details, and course content, but it does not explicitly direct Abi to read information under Modules as a next step. Abi, who prefers clear, step-by-step instructions, might not naturally think to look under Modules based on the information provided in the syllabus PDF alone. She requires explicit guidance to understand the importance of the Modules section for getting started with the course.</t>
+Why: The syllabus PDF provides a comprehensive overview of the course, including fundamental rules, response times, course content, learning outcomes, and course tools. However, it does not explicitly mention the need to read information under "Modules" as a step toward getting started with the course. Abi, who prefers clear instructions and comprehensive information, might not immediately think of reading the "Modules" section as a necessary step based on the information provided in the syllabus PDF alone.</t>
         </is>
       </c>
     </row>
@@ -488,8 +488,8 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The syllabus PDF does not explicitly instruct Abi to click on "Modules" next. Abi prefers comprehensive, step-by-step instructions and might not feel confident about what to do next without explicit guidance. The PDF provides detailed information about the course but does not clearly direct her to the Modules section, which could cause uncertainty. Abi's low computer self-efficacy also means she might hesitate to click on the Modules link without clear instructions, fearing she might make a mistake.</t>
+Facets: 4. Computer Self-Efficacy, 5. Learning Style
+Why: The current page does not provide explicit instructions or context about what the "Modules" section contains or why Abi should click on it. Given Abi's low confidence in unfamiliar computing tasks and preference for process-oriented learning, she might not feel confident or motivated to click on "Modules" without clear guidance or instructions indicating that it is the next step.</t>
         </is>
       </c>
     </row>
@@ -497,8 +497,8 @@
       <c r="A9" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 1. Motivations
-Why: After clicking on "Modules," Abi lands on a page that provides a detailed breakdown of the course modules. The page is well-organized, listing various sections and their contents, which aligns with Abi's preference for comprehensive information processing. The structure helps Abi understand that she is making progress towards getting started with the course, as she can see the detailed roadmap of what she needs to learn. The clear layout and extensive information provided will make her feel confident that she is on the right track and has access to the necessary information.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking on "Modules," Abi lands on a page that provides a detailed breakdown of the course modules, including various sections and tasks. This aligns with Abi's motivation to gather all necessary information and her comprehensive information processing style. The structured and detailed presentation of the modules will help Abi understand that she is making progress toward her goal and has access to all the information she needs to get started with the course.</t>
         </is>
       </c>
     </row>

--- a/outputs/HONULULU4.xlsx
+++ b/outputs/HONULULU4.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,7 +426,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The syllabus is a crucial document that outlines the course structure, objectives, and requirements. Abi, who prefers to gather comprehensive information before proceeding, would consider finding the syllabus an essential step toward understanding the course and getting started. The page explicitly mentions the importance of reading the syllabus, which aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style.</t>
+Why: The page explicitly mentions that to begin the course, Abi should click on "Syllabus" in the left pane and read through it carefully. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style, as the syllabus is likely to contain important information about the course structure, requirements, and expectations.</t>
         </is>
       </c>
     </row>
@@ -435,7 +435,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page clearly instructs Abi to click on "Syllabus" in the left pane to begin the course. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style, as she prefers clear, step-by-step instructions. The explicit mention of the syllabus and its importance provides Abi with the necessary guidance to know what to do at this step.</t>
+Why: The page clearly instructs Abi to click on "Syllabus" in the left pane to begin the course. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style, as she is likely to follow the step-by-step instructions provided to gather all necessary information.</t>
         </is>
       </c>
     </row>
@@ -444,7 +444,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on "Syllabus," Abi lands on a page titled "Course Syllabus," which includes detailed information about the course schedule and assignments. This page provides comprehensive information, aligning with Abi's preference for gathering all necessary details before proceeding. The clear presentation of the syllabus confirms to Abi that she has done the right thing and is making progress toward her goal of getting started with the course.</t>
+Why: After clicking on "Syllabus," Abi lands on a page titled "Course Syllabus," which includes detailed information about the weekly schedule and other relevant course materials. This confirms to Abi that she has done the right thing and is making progress toward her goal of getting started with the course. The comprehensive information provided aligns with her information processing style, ensuring she has all the necessary details to proceed.</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: Reading the syllabus is a fundamental step in understanding the course structure, requirements, and schedule. Abi, who prefers to gather comprehensive information before proceeding, would consider reading the syllabus an essential step toward getting started with the course. The detailed weekly schedule and other relevant information provided in the syllabus align with Abi's motivation to accomplish tasks and her comprehensive information processing style.</t>
+Why: Reading the syllabus is a crucial step in getting started with the course, as it provides comprehensive information about the course structure, schedule, assignments, and expectations. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style, as she would want to gather all necessary details to understand the course fully.</t>
         </is>
       </c>
     </row>
@@ -462,7 +462,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page clearly labels the link "Syllabus (PDF)" and places it under the "Course Syllabus" section. This aligns with Abi's motivation to read the syllabus and her comprehensive information processing style. The explicit labeling and placement make it clear that clicking on this link will provide the detailed syllabus in PDF format, which is a logical next step for Abi to achieve her subgoal of reading the syllabus.</t>
+Why: The page clearly labels the link as "Syllabus (PDF)," indicating that clicking it will provide the syllabus in PDF format. This aligns with Abi's motivation to gather all necessary information to get started with the course and her comprehensive information processing style, as she would recognize that reading the syllabus is an essential step. The clear labeling helps Abi understand what to do next.</t>
         </is>
       </c>
     </row>
@@ -471,7 +471,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on "Syllabus (PDF)," Abi lands on a detailed document that includes comprehensive information about the course, such as instructor details, fundamental rules, response times, course description, content, learning outcomes, and course tools. This aligns with Abi's motivation to gather all necessary information and her comprehensive information processing style. The detailed syllabus confirms to Abi that she has done the right thing and is making progress toward her goal of getting started with the course.</t>
+Why: After clicking on "Syllabus (PDF)," Abi lands on a page that provides detailed information about the course, including fundamental rules, response times, course description, content, learning outcomes, and course tools. This comprehensive information aligns with Abi's motivation to gather all necessary details to get started with the course and her information processing style, ensuring she knows she did the right thing and is making progress toward her goal.</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
         <is>
           <t>Answer: NO
 Facets: 1. Motivations, 2. Information Processing Style
-Why: While the syllabus provides comprehensive information about the course, it does not explicitly mention the need to read information under "Modules" as a step toward getting started with the course. Abi, who prefers clear, step-by-step instructions and comprehensive information, might not immediately think of reading the "Modules" section without explicit guidance. The current page focuses on the syllabus content, and there is no direct indication that reading the "Modules" section is a necessary next step.</t>
+Why: The current page provides detailed information about the course syllabus, including rules, response times, course content, and learning outcomes. However, it does not explicitly mention the need to read information under "Modules" as a step toward getting started with the course. Abi, who prefers comprehensive information and clear instructions, might not immediately think of checking the "Modules" section without a prompt or explicit instruction to do so.</t>
         </is>
       </c>
     </row>
@@ -488,8 +488,8 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The current page does not provide explicit instructions or guidance on what to do next, such as clicking on "Modules." Abi, who prefers clear, step-by-step instructions and has low confidence in performing unfamiliar computing tasks, might not know that clicking on "Modules" is the next step. The page focuses on the syllabus content without indicating that further information under "Modules" is necessary, which could leave Abi uncertain about what to do next.</t>
+Facets: 4. Computer Self-Efficacy, 5. Learning Style
+Why: The current page does not provide explicit instructions or prompts to click on "Modules." Given Abi's low confidence in unfamiliar computing tasks and preference for process-oriented learning, she might not know to click on "Modules" without clear guidance. The page focuses on the syllabus content, and there is no direct indication that clicking on "Modules" is the next step.</t>
         </is>
       </c>
     </row>
@@ -498,7 +498,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on "Modules," Abi lands on a page that provides a detailed breakdown of the course modules, including lessons, assignments, quizzes, and other relevant information. This aligns with Abi's motivation to gather all necessary information and her comprehensive information processing style. The clear structure and detailed content confirm to Abi that she has done the right thing and is making progress toward her goal of getting started with the course. The page provides all the information she needs to understand the course modules and their requirements.</t>
+Why: After clicking on "Modules," Abi lands on a page that provides a detailed breakdown of the course modules, including various lessons, assignments, quizzes, and other relevant information. This comprehensive layout aligns with Abi's motivation to gather all necessary details to get started with the course and her information processing style, ensuring she knows she did the right thing and is making progress toward her goal. The detailed structure of the modules provides all the information she needs to proceed.</t>
         </is>
       </c>
     </row>
